--- a/PES/SRB Invoices/1048  Invoice for EFSE for VISA PAK maintenece services from April 24 to June 24.xlsx
+++ b/PES/SRB Invoices/1048  Invoice for EFSE for VISA PAK maintenece services from April 24 to June 24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\SRB Invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0B64EC-4794-411E-8A01-F1D651F38113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45437D53-7A8E-4758-B3A8-7440D145C6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3840" yWindow="3840" windowWidth="15330" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="36" r:id="rId1"/>
@@ -431,57 +431,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -508,6 +457,57 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39:J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1041,8 +1041,7 @@
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
@@ -1079,16 +1078,16 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -1108,11 +1107,11 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1121,11 +1120,11 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1145,85 +1144,85 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="52" t="s">
+      <c r="F17" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="55"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="33"/>
       <c r="E18" s="4"/>
       <c r="F18" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="51"/>
+      <c r="H18" s="62"/>
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="43"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="34"/>
       <c r="E19" s="3"/>
       <c r="F19" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="53" t="s">
+      <c r="G19" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="54"/>
+      <c r="H19" s="65"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="44"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="25"/>
       <c r="E20" s="3"/>
       <c r="F20" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="53" t="s">
+      <c r="G20" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="54"/>
+      <c r="H20" s="65"/>
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="45"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="35"/>
       <c r="E21" s="3"/>
       <c r="F21" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="55"/>
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1248,11 +1247,11 @@
       <c r="A25" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="29" t="s">
         <v>13</v>
       </c>
@@ -1281,11 +1280,11 @@
     </row>
     <row r="27" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="57"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
       <c r="E27" s="9"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -1295,9 +1294,9 @@
     </row>
     <row r="28" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="57"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
       <c r="E28" s="9"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -1306,23 +1305,23 @@
       <c r="M28" s="8"/>
     </row>
     <row r="29" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="66" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="60">
+      <c r="C29" s="50"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="43">
         <v>275000</v>
       </c>
-      <c r="F29" s="61">
+      <c r="F29" s="44">
         <v>0.15</v>
       </c>
-      <c r="G29" s="62">
+      <c r="G29" s="45">
         <f>E29*15%</f>
         <v>41250</v>
       </c>
-      <c r="H29" s="50">
+      <c r="H29" s="61">
         <f>E29+G29</f>
         <v>316250</v>
       </c>
@@ -1331,14 +1330,14 @@
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="50"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="61"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="39"/>
@@ -1346,9 +1345,9 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="38"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="65"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="48"/>
       <c r="E31" s="9"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -1358,9 +1357,9 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="48"/>
       <c r="E32" s="11"/>
       <c r="F32" s="12"/>
       <c r="G32" s="13"/>
@@ -1415,11 +1414,11 @@
     </row>
     <row r="37" spans="1:13" s="21" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="32"/>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="59"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="42"/>
       <c r="E37" s="17">
         <f>SUM(E29:E35)</f>
         <v>275000</v>
@@ -1459,18 +1458,21 @@
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
+      <c r="J41" s="39"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="6"/>
       <c r="D42" s="3"/>
+      <c r="J42" s="39"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
+      <c r="J43" s="39"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E47" s="24"/>
@@ -1483,13 +1485,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B29:D30"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B19:C19"/>
@@ -1506,6 +1501,13 @@
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B27:D28"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B29:D30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/PES/SRB Invoices/1048  Invoice for EFSE for VISA PAK maintenece services from April 24 to June 24.xlsx
+++ b/PES/SRB Invoices/1048  Invoice for EFSE for VISA PAK maintenece services from April 24 to June 24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\SRB Invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45437D53-7A8E-4758-B3A8-7440D145C6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61A17F3-5C48-4A4A-8673-5FD70D483C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3840" yWindow="3840" windowWidth="15330" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="36" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>RATE</t>
   </si>
@@ -88,10 +88,13 @@
     <t>Maintenance Charges of HVAC System - VISA Office Dolmen Mall Clifton Karachi.</t>
   </si>
   <si>
-    <t>M/S EFS Facilities Services</t>
-  </si>
-  <si>
-    <t>Dated: 23-08-2024</t>
+    <t>M/S EFS Facilities Services (Pvt) Ltd</t>
+  </si>
+  <si>
+    <t>4238278-5</t>
+  </si>
+  <si>
+    <t>Dated: 31-10-2024</t>
   </si>
 </sst>
 </file>
@@ -431,6 +434,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -457,57 +511,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1026,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39:J45"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1078,16 +1081,16 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -1107,11 +1110,11 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
+      <c r="F14" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1120,11 +1123,11 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1144,85 +1147,87 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="63" t="s">
+      <c r="F17" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="66"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="33"/>
       <c r="E18" s="4"/>
       <c r="F18" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="62" t="s">
+      <c r="G18" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="62"/>
+      <c r="H18" s="51"/>
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="54"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="34"/>
       <c r="E19" s="3"/>
       <c r="F19" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="64" t="s">
+      <c r="G19" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="65"/>
+      <c r="H19" s="54"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="55"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="25"/>
       <c r="E20" s="3"/>
       <c r="F20" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="64" t="s">
+      <c r="G20" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="65"/>
+      <c r="H20" s="54"/>
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="56"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="35"/>
       <c r="E21" s="3"/>
       <c r="F21" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="55"/>
+      <c r="G21" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="44"/>
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1247,11 +1252,11 @@
       <c r="A25" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="29" t="s">
         <v>13</v>
       </c>
@@ -1280,11 +1285,11 @@
     </row>
     <row r="27" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="68"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
       <c r="E27" s="9"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -1294,9 +1299,9 @@
     </row>
     <row r="28" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="68"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="9"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -1305,23 +1310,23 @@
       <c r="M28" s="8"/>
     </row>
     <row r="29" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="49" t="s">
+      <c r="A29" s="42"/>
+      <c r="B29" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="43">
+      <c r="C29" s="67"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="60">
         <v>275000</v>
       </c>
-      <c r="F29" s="44">
+      <c r="F29" s="61">
         <v>0.15</v>
       </c>
-      <c r="G29" s="45">
+      <c r="G29" s="62">
         <f>E29*15%</f>
         <v>41250</v>
       </c>
-      <c r="H29" s="61">
+      <c r="H29" s="50">
         <f>E29+G29</f>
         <v>316250</v>
       </c>
@@ -1330,14 +1335,14 @@
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="61"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="50"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="39"/>
@@ -1345,9 +1350,9 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="38"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="48"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="65"/>
       <c r="E31" s="9"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -1357,9 +1362,9 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="65"/>
       <c r="E32" s="11"/>
       <c r="F32" s="12"/>
       <c r="G32" s="13"/>
@@ -1414,11 +1419,11 @@
     </row>
     <row r="37" spans="1:13" s="21" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="32"/>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="42"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="59"/>
       <c r="E37" s="17">
         <f>SUM(E29:E35)</f>
         <v>275000</v>
@@ -1485,6 +1490,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B29:D30"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B19:C19"/>
@@ -1501,13 +1513,6 @@
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B27:D28"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B29:D30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
